--- a/data/trans_orig/Q5414-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FBC9A90-2376-4979-9DCC-8BD4761E46EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC4CB97D-E1A8-4A9F-971D-A8B00C425E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{334D66F8-9190-4430-8B51-E9CBF54BE795}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72326C64-4FFF-434E-9499-ACC73CDDE258}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="310">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -89,868 +89,886 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>Con algo de ayuda</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>Con algo de ayuda</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE54E06E-31F7-4C38-AB9F-4CE4AD885DA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F21F37-A38F-4C24-8422-3620283F4A52}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,7 +1618,7 @@
         <v>563</v>
       </c>
       <c r="I6" s="7">
-        <v>576746</v>
+        <v>576745</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1651,7 +1669,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1743,13 +1761,13 @@
         <v>810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1758,13 +1776,13 @@
         <v>914</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -1773,13 +1791,13 @@
         <v>1723</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,13 +1812,13 @@
         <v>87273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -1809,13 +1827,13 @@
         <v>60157</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -1824,13 +1842,13 @@
         <v>147431</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,7 +1904,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1904,7 +1922,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1919,7 +1937,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1934,7 +1952,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,7 +1973,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1970,7 +1988,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1985,7 +2003,7 @@
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,10 +2018,10 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2015,10 +2033,10 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>40</v>
@@ -2030,10 +2048,10 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>40</v>
@@ -2104,13 +2122,13 @@
         <v>1824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2119,13 +2137,13 @@
         <v>4363</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2134,10 +2152,10 @@
         <v>6188</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>75</v>
@@ -2188,10 +2206,10 @@
         <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2224,13 @@
         <v>492548</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>648</v>
@@ -2221,13 +2239,13 @@
         <v>663783</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M18" s="7">
         <v>1160</v>
@@ -2236,13 +2254,13 @@
         <v>1156331</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2316,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C604D0D-54F4-4602-92DC-CB6516C9C5BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F5A249-5CAD-4E6E-AC02-8FB53B5621CD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2334,7 +2352,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2441,13 +2459,13 @@
         <v>5146</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2456,13 +2474,13 @@
         <v>9673</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2471,7 +2489,7 @@
         <v>14819</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>101</v>
@@ -2492,13 +2510,13 @@
         <v>10761</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -2507,10 +2525,10 @@
         <v>18589</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>107</v>
@@ -2564,7 +2582,7 @@
         <v>115</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="M6" s="7">
         <v>936</v>
@@ -2573,13 +2591,13 @@
         <v>1004772</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2665,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2662,13 +2680,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2677,13 +2695,13 @@
         <v>3416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2716,13 @@
         <v>3098</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2713,13 +2731,13 @@
         <v>986</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2728,13 +2746,13 @@
         <v>4085</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2767,13 @@
         <v>114574</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2764,13 +2782,13 @@
         <v>79664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -2779,13 +2797,13 @@
         <v>194238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,7 +2859,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2859,7 +2877,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2874,7 +2892,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2889,7 +2907,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,7 +2928,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2919,13 +2937,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2934,13 +2952,13 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,10 +2973,10 @@
         <v>26575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2970,13 +2988,13 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -2985,13 +3003,13 @@
         <v>47721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3077,13 @@
         <v>6138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3074,13 +3092,13 @@
         <v>12097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3089,13 +3107,13 @@
         <v>18235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3128,13 @@
         <v>13860</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -3125,13 +3143,13 @@
         <v>20675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -3140,13 +3158,13 @@
         <v>34535</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3179,13 @@
         <v>539639</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H18" s="7">
         <v>662</v>
@@ -3176,13 +3194,13 @@
         <v>707093</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>1149</v>
@@ -3191,13 +3209,13 @@
         <v>1246732</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3271,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3272,7 +3290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6D510C-054C-45E9-AF5D-072CA6817660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CA1F79-50FF-46DA-9FB7-EDBF0238CCAE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3289,7 +3307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3402,7 +3420,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3411,13 +3429,13 @@
         <v>9353</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3426,13 +3444,13 @@
         <v>9353</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3465,13 @@
         <v>8581</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -3462,13 +3480,13 @@
         <v>18243</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -3477,13 +3495,13 @@
         <v>26824</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,16 +3513,16 @@
         <v>376</v>
       </c>
       <c r="D6" s="7">
-        <v>345321</v>
+        <v>345320</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="H6" s="7">
         <v>450</v>
@@ -3513,13 +3531,13 @@
         <v>527161</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M6" s="7">
         <v>826</v>
@@ -3528,13 +3546,13 @@
         <v>872481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3564,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3602,13 +3620,13 @@
         <v>912</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3623,7 +3641,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3632,13 +3650,13 @@
         <v>912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,7 +3677,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3668,13 +3686,13 @@
         <v>1981</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3683,13 +3701,13 @@
         <v>1981</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3722,13 @@
         <v>191620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>155</v>
@@ -3719,13 +3737,13 @@
         <v>186093</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>351</v>
@@ -3734,13 +3752,13 @@
         <v>377713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3814,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3814,7 +3832,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3829,7 +3847,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3844,7 +3862,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,7 +3883,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3874,13 +3892,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3889,13 +3907,13 @@
         <v>1376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,10 +3928,10 @@
         <v>42029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -3925,13 +3943,13 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -3940,13 +3958,13 @@
         <v>74327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +4038,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4029,13 +4047,13 @@
         <v>9353</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4044,13 +4062,13 @@
         <v>10265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4083,13 @@
         <v>8581</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -4080,13 +4098,13 @@
         <v>21600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -4095,13 +4113,13 @@
         <v>30181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4134,13 @@
         <v>578970</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H18" s="7">
         <v>630</v>
@@ -4131,13 +4149,13 @@
         <v>745552</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M18" s="7">
         <v>1243</v>
@@ -4146,13 +4164,13 @@
         <v>1324522</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,7 +4226,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4227,7 +4245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679AA932-E07A-475D-B25E-72F76C5490A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86CEF4B-A9D6-4A41-B37A-83067EF119C9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4244,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4351,13 +4369,13 @@
         <v>2275</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4369,10 +4387,10 @@
         <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4381,13 +4399,13 @@
         <v>9591</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4420,13 @@
         <v>4477</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -4417,13 +4435,13 @@
         <v>21483</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>252</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -4432,13 +4450,13 @@
         <v>25960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4471,13 @@
         <v>280720</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>968</v>
@@ -4468,13 +4486,13 @@
         <v>526721</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>1383</v>
@@ -4483,13 +4501,13 @@
         <v>807441</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4575,13 @@
         <v>666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4578,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4587,10 +4605,10 @@
         <v>1623</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>77</v>
@@ -4608,13 +4626,13 @@
         <v>4646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -4623,13 +4641,13 @@
         <v>5861</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -4638,13 +4656,13 @@
         <v>10507</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4677,13 @@
         <v>289254</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>516</v>
@@ -4677,10 +4695,10 @@
         <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>935</v>
@@ -4689,13 +4707,13 @@
         <v>668858</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,7 +4769,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4769,7 +4787,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4784,7 +4802,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4799,7 +4817,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4832,13 @@
         <v>881</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4835,7 +4853,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>104</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4844,13 +4862,13 @@
         <v>881</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4883,13 @@
         <v>111105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
         <v>152</v>
@@ -4880,10 +4898,10 @@
         <v>78245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>40</v>
@@ -4895,13 +4913,13 @@
         <v>189350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4987,13 @@
         <v>2941</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>48</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -4984,13 +5002,13 @@
         <v>8273</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4999,13 +5017,13 @@
         <v>11214</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5038,13 @@
         <v>10005</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -5035,13 +5053,13 @@
         <v>27344</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -5050,13 +5068,13 @@
         <v>37348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,10 +5092,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>139</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>1636</v>
@@ -5086,13 +5104,13 @@
         <v>984570</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>2636</v>
@@ -5101,13 +5119,13 @@
         <v>1665649</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,7 +5181,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5414-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC4CB97D-E1A8-4A9F-971D-A8B00C425E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E5CD1A-16EA-451F-8A0C-72AD583EC763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72326C64-4FFF-434E-9499-ACC73CDDE258}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4424FFB6-7315-46FE-9F55-85AFFF27B839}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="312">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,68%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -89,880 +89,886 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,56%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,2%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Con algo de ayuda</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>Con algo de ayuda</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
   </si>
   <si>
     <t>96,37%</t>
@@ -1380,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F21F37-A38F-4C24-8422-3620283F4A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABEE7C5-E449-45EA-8558-C05C06732BA3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1618,7 +1624,7 @@
         <v>563</v>
       </c>
       <c r="I6" s="7">
-        <v>576745</v>
+        <v>576746</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1669,7 +1675,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1725,13 +1731,13 @@
         <v>1141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1740,13 +1746,13 @@
         <v>1141</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1767,13 @@
         <v>810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1776,13 +1782,13 @@
         <v>914</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -1791,13 +1797,13 @@
         <v>1723</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,13 +1818,13 @@
         <v>87273</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -1827,13 +1833,13 @@
         <v>60157</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -1842,13 +1848,13 @@
         <v>147431</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,7 +1910,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1922,7 +1928,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1937,7 +1943,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1952,7 +1958,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,7 +1979,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1988,7 +1994,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2003,7 +2009,7 @@
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,10 +2024,10 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2033,10 +2039,10 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>40</v>
@@ -2048,10 +2054,10 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>40</v>
@@ -2122,13 +2128,13 @@
         <v>1824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2137,13 +2143,13 @@
         <v>4363</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2152,13 +2158,13 @@
         <v>6188</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2179,13 @@
         <v>8094</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2188,13 +2194,13 @@
         <v>8696</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -2203,10 +2209,10 @@
         <v>16790</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>83</v>
@@ -2242,10 +2248,10 @@
         <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>1160</v>
@@ -2254,13 +2260,13 @@
         <v>1156331</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,7 +2322,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2335,7 +2341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F5A249-5CAD-4E6E-AC02-8FB53B5621CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E0FC2F-3708-4A8A-908B-58766FC617BC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2352,7 +2358,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2459,13 +2465,13 @@
         <v>5146</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2474,13 +2480,13 @@
         <v>9673</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2489,13 +2495,13 @@
         <v>14819</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2516,13 @@
         <v>10761</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -2525,13 +2531,13 @@
         <v>18589</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -2540,13 +2546,13 @@
         <v>29350</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2567,13 @@
         <v>398491</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H6" s="7">
         <v>571</v>
@@ -2576,13 +2582,13 @@
         <v>606283</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="M6" s="7">
         <v>936</v>
@@ -2591,13 +2597,13 @@
         <v>1004772</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2671,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2680,7 +2686,7 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
@@ -2749,10 +2755,10 @@
         <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2773,13 @@
         <v>114574</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2782,13 +2788,13 @@
         <v>79664</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -2797,13 +2803,13 @@
         <v>194238</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,7 +2865,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2877,7 +2883,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2892,7 +2898,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2907,7 +2913,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,7 +2934,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2937,13 +2943,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2952,13 +2958,13 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,10 +2979,10 @@
         <v>26575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2988,13 +2994,13 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3003,13 +3009,13 @@
         <v>47721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3083,13 @@
         <v>6138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3092,13 +3098,13 @@
         <v>12097</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3107,13 +3113,13 @@
         <v>18235</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3134,13 @@
         <v>13860</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -3143,13 +3149,13 @@
         <v>20675</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -3158,13 +3164,13 @@
         <v>34535</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3185,13 @@
         <v>539639</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H18" s="7">
         <v>662</v>
@@ -3194,13 +3200,13 @@
         <v>707093</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>1149</v>
@@ -3209,13 +3215,13 @@
         <v>1246732</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3277,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3290,7 +3296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CA1F79-50FF-46DA-9FB7-EDBF0238CCAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE21E3E-2B29-47FB-8F0C-1B21D33E9FD4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3307,7 +3313,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3420,7 +3426,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3432,10 +3438,10 @@
         <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3444,13 +3450,13 @@
         <v>9353</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3471,13 @@
         <v>8581</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -3480,13 +3486,13 @@
         <v>18243</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -3495,13 +3501,13 @@
         <v>26824</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,16 +3519,16 @@
         <v>376</v>
       </c>
       <c r="D6" s="7">
-        <v>345320</v>
+        <v>345321</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="H6" s="7">
         <v>450</v>
@@ -3531,13 +3537,13 @@
         <v>527161</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>826</v>
@@ -3546,13 +3552,13 @@
         <v>872481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,7 +3570,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3620,13 +3626,13 @@
         <v>912</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3641,7 +3647,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3650,13 +3656,13 @@
         <v>912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,7 +3683,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3686,13 +3692,13 @@
         <v>1981</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3701,13 +3707,13 @@
         <v>1981</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3728,13 @@
         <v>191620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>155</v>
@@ -3743,7 +3749,7 @@
         <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>351</v>
@@ -3755,10 +3761,10 @@
         <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,7 +3820,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3832,7 +3838,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3847,7 +3853,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3862,7 +3868,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,7 +3889,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3907,13 +3913,13 @@
         <v>1376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,10 +3934,10 @@
         <v>42029</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -3943,13 +3949,13 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -3958,13 +3964,13 @@
         <v>74327</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4047,13 +4053,13 @@
         <v>9353</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4062,13 +4068,13 @@
         <v>10265</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,10 +4089,10 @@
         <v>8581</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>228</v>
@@ -4113,13 +4119,13 @@
         <v>30181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4140,13 @@
         <v>578970</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H18" s="7">
         <v>630</v>
@@ -4149,13 +4155,13 @@
         <v>745552</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M18" s="7">
         <v>1243</v>
@@ -4164,13 +4170,13 @@
         <v>1324522</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,7 +4232,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4245,7 +4251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86CEF4B-A9D6-4A41-B37A-83067EF119C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09A832A-3A1F-4454-BD2B-49C2DEAF99BA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4262,7 +4268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4369,13 +4375,13 @@
         <v>2275</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4387,10 +4393,10 @@
         <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>244</v>
+        <v>98</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4399,13 +4405,13 @@
         <v>9591</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,10 +4426,10 @@
         <v>4477</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>250</v>
@@ -4438,10 +4444,10 @@
         <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -4450,13 +4456,13 @@
         <v>25960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4477,13 @@
         <v>280720</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H6" s="7">
         <v>968</v>
@@ -4486,13 +4492,13 @@
         <v>526721</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M6" s="7">
         <v>1383</v>
@@ -4501,13 +4507,13 @@
         <v>807441</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4581,13 @@
         <v>666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4590,13 +4596,13 @@
         <v>957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4605,13 +4611,13 @@
         <v>1623</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4632,13 @@
         <v>4646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -4641,13 +4647,13 @@
         <v>5861</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -4656,13 +4662,13 @@
         <v>10507</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,10 +4683,10 @@
         <v>289254</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>208</v>
@@ -4692,13 +4698,13 @@
         <v>379604</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>935</v>
@@ -4707,13 +4713,13 @@
         <v>668858</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,7 +4775,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4787,7 +4793,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4802,7 +4808,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4817,7 +4823,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4838,13 @@
         <v>881</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4853,7 +4859,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4862,13 +4868,13 @@
         <v>881</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4889,13 @@
         <v>111105</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>152</v>
@@ -4898,7 +4904,7 @@
         <v>78245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>33</v>
@@ -4913,13 +4919,13 @@
         <v>189350</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4993,13 @@
         <v>2941</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -5002,13 +5008,13 @@
         <v>8273</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5017,13 +5023,13 @@
         <v>11214</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>22</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5044,13 @@
         <v>10005</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -5053,13 +5059,13 @@
         <v>27344</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -5068,13 +5074,13 @@
         <v>37348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,10 +5098,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H18" s="7">
         <v>1636</v>
@@ -5104,13 +5110,13 @@
         <v>984570</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M18" s="7">
         <v>2636</v>
@@ -5119,13 +5125,13 @@
         <v>1665649</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,7 +5187,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5414-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E5CD1A-16EA-451F-8A0C-72AD583EC763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC8AA5C-7528-46F9-B0D3-CCAF012C332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4424FFB6-7315-46FE-9F55-85AFFF27B839}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B10633A5-BECE-4C03-9E21-759C504815E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="304">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,901 +80,877 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Con algo de ayuda</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>Con algo de ayuda</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
     <t>1,7%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>95,32%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>96,4%</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABEE7C5-E449-45EA-8558-C05C06732BA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F822C5-C8AE-4922-9FE6-55CA1BF1514A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1731,13 +1707,13 @@
         <v>1141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1746,13 +1722,13 @@
         <v>1141</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,7 +1743,7 @@
         <v>810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
@@ -1833,10 +1809,10 @@
         <v>60157</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>55</v>
@@ -1848,13 +1824,13 @@
         <v>147431</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,7 +1886,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1928,7 +1904,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1943,7 +1919,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1958,7 +1934,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,7 +1955,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1994,7 +1970,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2009,7 +1985,7 @@
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,7 +2003,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2042,7 +2018,7 @@
         <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>40</v>
@@ -2057,7 +2033,7 @@
         <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>40</v>
@@ -2128,13 +2104,13 @@
         <v>1824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2143,13 +2119,13 @@
         <v>4363</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -2158,13 +2134,13 @@
         <v>6188</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2155,13 @@
         <v>8094</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -2194,13 +2170,13 @@
         <v>8696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -2209,13 +2185,13 @@
         <v>16790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2206,13 @@
         <v>492548</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>648</v>
@@ -2245,13 +2221,13 @@
         <v>663783</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M18" s="7">
         <v>1160</v>
@@ -2260,13 +2236,13 @@
         <v>1156331</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,7 +2298,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E0FC2F-3708-4A8A-908B-58766FC617BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391B175B-E44A-4148-83F1-68C6C9E7CE38}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2358,7 +2334,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2465,13 +2441,13 @@
         <v>5146</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2480,13 +2456,13 @@
         <v>9673</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -2495,13 +2471,13 @@
         <v>14819</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2492,13 @@
         <v>10761</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -2531,13 +2507,13 @@
         <v>18589</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -2546,13 +2522,13 @@
         <v>29350</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,13 +2543,13 @@
         <v>398491</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>571</v>
@@ -2582,13 +2558,13 @@
         <v>606283</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M6" s="7">
         <v>936</v>
@@ -2597,13 +2573,13 @@
         <v>1004772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2647,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2686,13 +2662,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2701,13 +2677,13 @@
         <v>3416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2698,13 @@
         <v>3098</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2737,13 +2713,13 @@
         <v>986</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2752,13 +2728,13 @@
         <v>4085</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2749,13 @@
         <v>114574</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2788,13 +2764,13 @@
         <v>79664</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -2803,13 +2779,13 @@
         <v>194238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2841,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2883,7 +2859,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2898,7 +2874,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2913,7 +2889,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,7 +2910,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2943,13 +2919,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2958,13 +2934,13 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,7 +2958,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2994,10 +2970,10 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>55</v>
@@ -3009,10 +2985,10 @@
         <v>47721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>55</v>
@@ -3083,13 +3059,13 @@
         <v>6138</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3098,13 +3074,13 @@
         <v>12097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3113,13 +3089,13 @@
         <v>18235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3110,13 @@
         <v>13860</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -3149,13 +3125,13 @@
         <v>20675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>29</v>
@@ -3164,13 +3140,13 @@
         <v>34535</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3161,13 @@
         <v>539639</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H18" s="7">
         <v>662</v>
@@ -3200,13 +3176,13 @@
         <v>707093</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>1149</v>
@@ -3215,13 +3191,13 @@
         <v>1246732</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3253,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3296,7 +3272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE21E3E-2B29-47FB-8F0C-1B21D33E9FD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C3DB2A-D20C-4DE5-A766-FB243F04F40A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3313,7 +3289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3426,7 +3402,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3435,13 +3411,13 @@
         <v>9353</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3450,13 +3426,13 @@
         <v>9353</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3447,13 @@
         <v>8581</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -3486,13 +3462,13 @@
         <v>18243</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -3501,13 +3477,13 @@
         <v>26824</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3498,13 @@
         <v>345321</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H6" s="7">
         <v>450</v>
@@ -3537,13 +3513,13 @@
         <v>527161</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>826</v>
@@ -3552,13 +3528,13 @@
         <v>872481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3602,13 @@
         <v>912</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3647,7 +3623,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3656,13 +3632,13 @@
         <v>912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3659,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3692,13 +3668,13 @@
         <v>1981</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3707,13 +3683,13 @@
         <v>1981</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,10 +3704,10 @@
         <v>191620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>55</v>
@@ -3743,10 +3719,10 @@
         <v>186093</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>55</v>
@@ -3758,13 +3734,13 @@
         <v>377713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,7 +3796,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3838,7 +3814,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3853,7 +3829,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3868,7 +3844,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,7 +3865,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3898,13 +3874,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3913,13 +3889,13 @@
         <v>1376</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,7 +3913,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -3949,10 +3925,10 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>55</v>
@@ -3964,10 +3940,10 @@
         <v>74327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>55</v>
@@ -4044,7 +4020,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4053,13 +4029,13 @@
         <v>9353</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4068,13 +4044,13 @@
         <v>10265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4065,13 @@
         <v>8581</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -4104,13 +4080,13 @@
         <v>21600</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -4119,13 +4095,13 @@
         <v>30181</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4116,13 @@
         <v>578970</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H18" s="7">
         <v>630</v>
@@ -4155,13 +4131,13 @@
         <v>745552</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M18" s="7">
         <v>1243</v>
@@ -4170,13 +4146,13 @@
         <v>1324522</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,7 +4208,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +4227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09A832A-3A1F-4454-BD2B-49C2DEAF99BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFE60A5-1B12-4466-A29D-776AEF98723B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4268,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4375,13 +4351,13 @@
         <v>2275</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -4393,10 +4369,10 @@
         <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4405,13 +4381,13 @@
         <v>9591</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4402,13 @@
         <v>4477</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -4441,13 +4417,13 @@
         <v>21483</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -4456,13 +4432,13 @@
         <v>25960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4453,13 @@
         <v>280720</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>968</v>
@@ -4492,13 +4468,13 @@
         <v>526721</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>1383</v>
@@ -4507,13 +4483,13 @@
         <v>807441</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4557,13 @@
         <v>666</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4596,13 +4572,13 @@
         <v>957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4611,13 +4587,13 @@
         <v>1623</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4608,13 @@
         <v>4646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -4647,10 +4623,10 @@
         <v>5861</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>124</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>271</v>
@@ -4665,10 +4641,10 @@
         <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,7 +4665,7 @@
         <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>516</v>
@@ -4698,13 +4674,13 @@
         <v>379604</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>935</v>
@@ -4713,13 +4689,13 @@
         <v>668858</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,7 +4751,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4793,7 +4769,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4808,7 +4784,7 @@
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4838,13 +4814,13 @@
         <v>881</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4859,7 +4835,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4868,13 +4844,13 @@
         <v>881</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,10 +4865,10 @@
         <v>111105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>55</v>
@@ -4907,7 +4883,7 @@
         <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>40</v>
@@ -4919,10 +4895,10 @@
         <v>189350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>55</v>
@@ -4993,13 +4969,13 @@
         <v>2941</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>47</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -5008,13 +4984,13 @@
         <v>8273</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -5023,13 +4999,13 @@
         <v>11214</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5020,13 @@
         <v>10005</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -5059,13 +5035,13 @@
         <v>27344</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -5074,13 +5050,13 @@
         <v>37348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,10 +5074,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>305</v>
+        <v>139</v>
       </c>
       <c r="H18" s="7">
         <v>1636</v>
@@ -5110,13 +5086,13 @@
         <v>984570</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="M18" s="7">
         <v>2636</v>
@@ -5125,13 +5101,13 @@
         <v>1665649</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>311</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,7 +5163,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5414-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BC8AA5C-7528-46F9-B0D3-CCAF012C332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB3E693-5C6B-4CBC-A1E2-DFC0DC18656A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B10633A5-BECE-4C03-9E21-759C504815E0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8B10EFFE-0B6E-4BF9-87BD-227E45B73383}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="310">
   <si>
     <t>Población según si es capaz de comer solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -785,172 +785,190 @@
     <t>Población según si es capaz de comer solo en 2023 (Tasa respuesta: 31,27%)</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>3,74%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F822C5-C8AE-4922-9FE6-55CA1BF1514A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E93745-12D5-4C8F-9300-A7315480FB2C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1600,7 +1618,7 @@
         <v>563</v>
       </c>
       <c r="I6" s="7">
-        <v>576746</v>
+        <v>576745</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1651,7 +1669,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2317,7 +2335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391B175B-E44A-4148-83F1-68C6C9E7CE38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A14D71-213A-488B-9CFC-2D7CA5BD39F6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3272,7 +3290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C3DB2A-D20C-4DE5-A766-FB243F04F40A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D99CC24-7719-4B12-9B1F-2605035332BA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3495,7 +3513,7 @@
         <v>376</v>
       </c>
       <c r="D6" s="7">
-        <v>345321</v>
+        <v>345320</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>193</v>
@@ -3546,7 +3564,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4227,7 +4245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFE60A5-1B12-4466-A29D-776AEF98723B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802B3B5E-E4B3-4789-808D-65A9FC6B6DC8}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4348,28 +4366,28 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>2275</v>
+        <v>2147</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>248</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>7316</v>
+        <v>6711</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>250</v>
@@ -4378,13 +4396,13 @@
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>9591</v>
+        <v>8858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>251</v>
@@ -4399,7 +4417,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>4477</v>
+        <v>4174</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>252</v>
@@ -4414,31 +4432,31 @@
         <v>36</v>
       </c>
       <c r="I5" s="7">
-        <v>21483</v>
+        <v>18378</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>25960</v>
+        <v>22551</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,46 +4468,46 @@
         <v>415</v>
       </c>
       <c r="D6" s="7">
-        <v>280720</v>
+        <v>262923</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>242</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H6" s="7">
         <v>968</v>
       </c>
       <c r="I6" s="7">
-        <v>526721</v>
+        <v>475644</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M6" s="7">
         <v>1383</v>
       </c>
       <c r="N6" s="7">
-        <v>807441</v>
+        <v>738567</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,7 +4519,7 @@
         <v>428</v>
       </c>
       <c r="D7" s="7">
-        <v>287472</v>
+        <v>269244</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4516,7 +4534,7 @@
         <v>1019</v>
       </c>
       <c r="I7" s="7">
-        <v>555520</v>
+        <v>500733</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4531,7 +4549,7 @@
         <v>1447</v>
       </c>
       <c r="N7" s="7">
-        <v>842991</v>
+        <v>769976</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4554,46 +4572,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>957</v>
+        <v>865</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>1623</v>
+        <v>1497</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,46 +4623,46 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>4646</v>
+        <v>4266</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
       </c>
       <c r="I9" s="7">
-        <v>5861</v>
+        <v>5192</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
       </c>
       <c r="N9" s="7">
-        <v>10507</v>
+        <v>9458</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,46 +4674,46 @@
         <v>419</v>
       </c>
       <c r="D10" s="7">
-        <v>289254</v>
+        <v>268358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>516</v>
       </c>
       <c r="I10" s="7">
-        <v>379604</v>
+        <v>449682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>935</v>
       </c>
       <c r="N10" s="7">
-        <v>668858</v>
+        <v>718040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,7 +4725,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4722,7 +4740,7 @@
         <v>529</v>
       </c>
       <c r="I11" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4737,7 +4755,7 @@
         <v>955</v>
       </c>
       <c r="N11" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4799,7 +4817,7 @@
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,16 +4829,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>881</v>
+        <v>775</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4841,16 +4859,16 @@
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>881</v>
+        <v>775</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4880,13 @@
         <v>166</v>
       </c>
       <c r="D14" s="7">
-        <v>111105</v>
+        <v>104211</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>55</v>
@@ -4877,7 +4895,7 @@
         <v>152</v>
       </c>
       <c r="I14" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>55</v>
@@ -4892,13 +4910,13 @@
         <v>318</v>
       </c>
       <c r="N14" s="7">
-        <v>189350</v>
+        <v>175536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>55</v>
@@ -4913,7 +4931,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4928,7 +4946,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4943,7 +4961,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4966,46 +4984,46 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>2941</v>
+        <v>2780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>8273</v>
+        <v>7576</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>11214</v>
+        <v>10356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,28 +5035,28 @@
         <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>10005</v>
+        <v>9215</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>27344</v>
+        <v>23569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>298</v>
@@ -5047,16 +5065,16 @@
         <v>63</v>
       </c>
       <c r="N17" s="7">
-        <v>37348</v>
+        <v>32785</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,46 +5086,46 @@
         <v>1000</v>
       </c>
       <c r="D18" s="7">
-        <v>681079</v>
+        <v>635492</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>34</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>139</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>1636</v>
       </c>
       <c r="I18" s="7">
-        <v>984570</v>
+        <v>996652</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>173</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>2636</v>
       </c>
       <c r="N18" s="7">
-        <v>1665649</v>
+        <v>1632143</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5137,7 @@
         <v>1022</v>
       </c>
       <c r="D19" s="7">
-        <v>694024</v>
+        <v>647487</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5134,7 +5152,7 @@
         <v>1700</v>
       </c>
       <c r="I19" s="7">
-        <v>1020187</v>
+        <v>1027797</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5149,7 +5167,7 @@
         <v>2722</v>
       </c>
       <c r="N19" s="7">
-        <v>1714211</v>
+        <v>1675283</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
